--- a/biology/Botanique/Eucalyptus_tetrodonta/Eucalyptus_tetrodonta.xlsx
+++ b/biology/Botanique/Eucalyptus_tetrodonta/Eucalyptus_tetrodonta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eucalyptus tetrodonta est un arbre de la famille des Myrtaceae endémique d'Australie. On le rencontre notamment dans le Territoire du Nord, dans la péninsule de Cap York dans le Queensland et dans la région de Kimberley en Australie-Occidentale. C'est une espèce d'eucalyptus assez grande, avec une épaisse écorce et des fleurs blanches ou crèmes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eucalyptus tetrodonta est un arbre de la famille des Myrtaceae endémique d'Australie. On le rencontre notamment dans le Territoire du Nord, dans la péninsule de Cap York dans le Queensland et dans la région de Kimberley en Australie-Occidentale. C'est une espèce d'eucalyptus assez grande, avec une épaisse écorce et des fleurs blanches ou crèmes.
 </t>
         </is>
       </c>
